--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna5</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna5</t>
-  </si>
-  <si>
-    <t>Epha4</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H2">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N2">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O2">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P2">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q2">
-        <v>1.548616047431667</v>
+        <v>17.49418303915467</v>
       </c>
       <c r="R2">
-        <v>13.937544426885</v>
+        <v>157.447647352392</v>
       </c>
       <c r="S2">
-        <v>0.02778164050323294</v>
+        <v>0.2966118979673751</v>
       </c>
       <c r="T2">
-        <v>0.02778164050323294</v>
+        <v>0.2966118979673751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H3">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q3">
-        <v>1.567477131786667</v>
+        <v>19.69560993028978</v>
       </c>
       <c r="R3">
-        <v>14.10729418608</v>
+        <v>177.260489372608</v>
       </c>
       <c r="S3">
-        <v>0.02812000188462298</v>
+        <v>0.3339368423191381</v>
       </c>
       <c r="T3">
-        <v>0.02812000188462298</v>
+        <v>0.3339368423191381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H4">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N4">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q4">
-        <v>0.4387714007316668</v>
+        <v>10.76389846427111</v>
       </c>
       <c r="R4">
-        <v>3.948942606585</v>
+        <v>96.87508617844</v>
       </c>
       <c r="S4">
-        <v>0.007871408370359797</v>
+        <v>0.1825006829910156</v>
       </c>
       <c r="T4">
-        <v>0.007871408370359797</v>
+        <v>0.1825006829910156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H5">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I5">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J5">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N5">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O5">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P5">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q5">
-        <v>19.45861727962511</v>
+        <v>4.022569249572001</v>
       </c>
       <c r="R5">
-        <v>175.127555516626</v>
+        <v>36.20312324614801</v>
       </c>
       <c r="S5">
-        <v>0.3490809170220712</v>
+        <v>0.06820220739375576</v>
       </c>
       <c r="T5">
-        <v>0.3490809170220712</v>
+        <v>0.06820220739375575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H6">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I6">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J6">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>20.369632</v>
       </c>
       <c r="O6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q6">
-        <v>19.69560993028978</v>
+        <v>4.528759912928001</v>
       </c>
       <c r="R6">
-        <v>177.260489372608</v>
+        <v>40.758839216352</v>
       </c>
       <c r="S6">
-        <v>0.3533324838540134</v>
+        <v>0.07678461293137627</v>
       </c>
       <c r="T6">
-        <v>0.3533324838540134</v>
+        <v>0.07678461293137624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H7">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I7">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J7">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N7">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q7">
-        <v>5.513235365371779</v>
+        <v>2.47502423354</v>
       </c>
       <c r="R7">
-        <v>49.61911828834601</v>
+        <v>22.27521810186</v>
       </c>
       <c r="S7">
-        <v>0.09890555065891982</v>
+        <v>0.04196375639733907</v>
       </c>
       <c r="T7">
-        <v>0.09890555065891982</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.465079</v>
-      </c>
-      <c r="I8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>6.708176333333334</v>
-      </c>
-      <c r="N8">
-        <v>20.124529</v>
-      </c>
-      <c r="O8">
-        <v>0.4356329228871634</v>
-      </c>
-      <c r="P8">
-        <v>0.4356329228871633</v>
-      </c>
-      <c r="Q8">
-        <v>3.27600275808789</v>
-      </c>
-      <c r="R8">
-        <v>29.48402482279101</v>
-      </c>
-      <c r="S8">
-        <v>0.05877036536185922</v>
-      </c>
-      <c r="T8">
-        <v>0.05877036536185921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.465079</v>
-      </c>
-      <c r="I9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.789877333333333</v>
-      </c>
-      <c r="N9">
-        <v>20.369632</v>
-      </c>
-      <c r="O9">
-        <v>0.4409386339573907</v>
-      </c>
-      <c r="P9">
-        <v>0.4409386339573907</v>
-      </c>
-      <c r="Q9">
-        <v>3.315902231214223</v>
-      </c>
-      <c r="R9">
-        <v>29.843120080928</v>
-      </c>
-      <c r="S9">
-        <v>0.05948614821875429</v>
-      </c>
-      <c r="T9">
-        <v>0.05948614821875428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.465079</v>
-      </c>
-      <c r="I10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.900636333333334</v>
-      </c>
-      <c r="N10">
-        <v>5.701909000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1234284431554459</v>
-      </c>
-      <c r="P10">
-        <v>0.1234284431554459</v>
-      </c>
-      <c r="Q10">
-        <v>0.9281941262012225</v>
-      </c>
-      <c r="R10">
-        <v>8.353747135811002</v>
-      </c>
-      <c r="S10">
-        <v>0.0166514841261663</v>
-      </c>
-      <c r="T10">
-        <v>0.0166514841261663</v>
+        <v>0.04196375639733906</v>
       </c>
     </row>
   </sheetData>
